--- a/1,4-Benzoquinone/Original dataset-BQ.xlsx
+++ b/1,4-Benzoquinone/Original dataset-BQ.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\360MoveData\Users\zhuyi\Desktop\2cl-nature\Nature-1\sub-github\1,4-Benzoquinone\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BC4D57DE-0199-44AD-BA63-A843FF94967B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D9BD8470-C8C5-4EDD-85ED-943062D3AED5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-25310" yWindow="-3930" windowWidth="25420" windowHeight="16300" tabRatio="778" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3120" yWindow="3120" windowWidth="28800" windowHeight="11295" tabRatio="778" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="8" r:id="rId1"/>
@@ -1721,7 +1721,7 @@
     <t>H  OCH3  NH2  H</t>
   </si>
   <si>
-    <t>Molecules (the orange-labeled samples are the original samples, and the others are samples generated after site exchange)</t>
+    <t>Molecules (Simplified as functional group combinations of site (1,2,3,4), which correspond to site (3,5,2,6) in the main text and Sl. The orange-labeled samples are the original samples, and the others are samples generated after site exchange)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1811,28 +1811,25 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -2139,833 +2136,837 @@
   <dimension ref="A1:GT107"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="A5" activeCellId="1" sqref="A14 A5"/>
+      <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="44.625" style="5" customWidth="1"/>
-    <col min="2" max="2" width="27.125" style="5" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="24.625" style="5" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="24.875" style="5" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="37" style="5" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="23.5" style="5" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="23.75" style="5" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="36" style="5" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="30.625" style="5" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="29.5" style="5" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="30.125" style="5" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="32.375" style="5" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="34" style="5" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="27.125" style="5" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="21.25" style="5" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="22.125" style="5" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="37.375" style="5" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="30.375" style="5" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="21" style="5" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="23.75" style="5" bestFit="1" customWidth="1"/>
-    <col min="21" max="22" width="32.375" style="5" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="30.125" style="5" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="20.125" style="5" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="31.25" style="5" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="31.5" style="5" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="41.5" style="5" bestFit="1" customWidth="1"/>
-    <col min="28" max="28" width="43.125" style="5" bestFit="1" customWidth="1"/>
-    <col min="29" max="29" width="44" style="5" bestFit="1" customWidth="1"/>
-    <col min="30" max="30" width="39.5" style="5" bestFit="1" customWidth="1"/>
-    <col min="31" max="31" width="40.625" style="5" bestFit="1" customWidth="1"/>
-    <col min="32" max="32" width="41.5" style="5" bestFit="1" customWidth="1"/>
-    <col min="33" max="33" width="38.125" style="5" bestFit="1" customWidth="1"/>
-    <col min="34" max="34" width="39.875" style="5" bestFit="1" customWidth="1"/>
-    <col min="35" max="35" width="40.625" style="5" bestFit="1" customWidth="1"/>
-    <col min="36" max="36" width="31.5" style="5" bestFit="1" customWidth="1"/>
-    <col min="37" max="37" width="51.75" style="5" bestFit="1" customWidth="1"/>
-    <col min="38" max="38" width="48.25" style="5" bestFit="1" customWidth="1"/>
-    <col min="39" max="39" width="47.875" style="5" bestFit="1" customWidth="1"/>
-    <col min="40" max="40" width="67" style="5" bestFit="1" customWidth="1"/>
-    <col min="41" max="41" width="48.75" style="5" bestFit="1" customWidth="1"/>
-    <col min="42" max="42" width="62" style="5" bestFit="1" customWidth="1"/>
-    <col min="43" max="43" width="43.75" style="5" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="44.25" style="5" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="25.75" style="5" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="23.75" style="5" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="23.875" style="5" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="35.375" style="5" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="22.875" style="5" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="23" style="5" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="34.5" style="5" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="30" style="5" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="29.125" style="5" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="29.25" style="5" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="31.875" style="5" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="32.875" style="5" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="26.375" style="5" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="21" style="5" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="21.625" style="5" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="36.5" style="5" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="29.25" style="5" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="20.5" style="5" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="22.875" style="5" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="31.625" style="5" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="31.5" style="5" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="28.25" style="5" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="19.125" style="5" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="30" style="5" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="30.375" style="5" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="40.25" style="5" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="41.625" style="5" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="42.5" style="5" bestFit="1" customWidth="1"/>
+    <col min="30" max="30" width="38.875" style="5" bestFit="1" customWidth="1"/>
+    <col min="31" max="31" width="39.625" style="5" bestFit="1" customWidth="1"/>
+    <col min="32" max="32" width="40.5" style="5" bestFit="1" customWidth="1"/>
+    <col min="33" max="33" width="37" style="5" bestFit="1" customWidth="1"/>
+    <col min="34" max="34" width="38.375" style="5" bestFit="1" customWidth="1"/>
+    <col min="35" max="35" width="39.25" style="5" bestFit="1" customWidth="1"/>
+    <col min="36" max="36" width="30.5" style="5" bestFit="1" customWidth="1"/>
+    <col min="37" max="37" width="48.625" style="5" bestFit="1" customWidth="1"/>
+    <col min="38" max="38" width="46.75" style="5" bestFit="1" customWidth="1"/>
+    <col min="39" max="39" width="46.125" style="5" bestFit="1" customWidth="1"/>
+    <col min="40" max="40" width="64.125" style="5" bestFit="1" customWidth="1"/>
+    <col min="41" max="41" width="47" style="5" bestFit="1" customWidth="1"/>
+    <col min="42" max="42" width="59.5" style="5" bestFit="1" customWidth="1"/>
+    <col min="43" max="43" width="42.5" style="5" bestFit="1" customWidth="1"/>
     <col min="44" max="44" width="24.75" style="5" bestFit="1" customWidth="1"/>
     <col min="45" max="45" width="25.5" style="5" bestFit="1" customWidth="1"/>
     <col min="46" max="46" width="26.375" style="5" bestFit="1" customWidth="1"/>
-    <col min="47" max="47" width="28.125" style="5" bestFit="1" customWidth="1"/>
-    <col min="48" max="48" width="26.5" style="5" bestFit="1" customWidth="1"/>
-    <col min="49" max="49" width="25.625" style="5" bestFit="1" customWidth="1"/>
-    <col min="50" max="50" width="26" style="5" bestFit="1" customWidth="1"/>
+    <col min="47" max="47" width="26.75" style="5" bestFit="1" customWidth="1"/>
+    <col min="48" max="48" width="24.875" style="5" bestFit="1" customWidth="1"/>
+    <col min="49" max="49" width="23.5" style="5" bestFit="1" customWidth="1"/>
+    <col min="50" max="50" width="24.375" style="5" bestFit="1" customWidth="1"/>
     <col min="51" max="51" width="16.5" style="6" bestFit="1" customWidth="1"/>
-    <col min="52" max="52" width="27.125" style="5" bestFit="1" customWidth="1"/>
-    <col min="53" max="53" width="24.625" style="5" bestFit="1" customWidth="1"/>
-    <col min="54" max="54" width="24.875" style="5" bestFit="1" customWidth="1"/>
-    <col min="55" max="55" width="37" style="5" bestFit="1" customWidth="1"/>
-    <col min="56" max="56" width="23.5" style="5" bestFit="1" customWidth="1"/>
-    <col min="57" max="57" width="23.75" style="5" bestFit="1" customWidth="1"/>
-    <col min="58" max="58" width="36" style="5" bestFit="1" customWidth="1"/>
-    <col min="59" max="59" width="30.625" style="5" bestFit="1" customWidth="1"/>
-    <col min="60" max="60" width="29.5" style="5" bestFit="1" customWidth="1"/>
-    <col min="61" max="61" width="30.125" style="5" bestFit="1" customWidth="1"/>
-    <col min="62" max="62" width="32.375" style="5" bestFit="1" customWidth="1"/>
-    <col min="63" max="63" width="34" style="5" bestFit="1" customWidth="1"/>
-    <col min="64" max="64" width="27.125" style="5" bestFit="1" customWidth="1"/>
-    <col min="65" max="65" width="21.25" style="5" bestFit="1" customWidth="1"/>
-    <col min="66" max="66" width="22.125" style="5" bestFit="1" customWidth="1"/>
-    <col min="67" max="67" width="37.375" style="5" bestFit="1" customWidth="1"/>
-    <col min="68" max="68" width="30.375" style="5" bestFit="1" customWidth="1"/>
-    <col min="69" max="69" width="21" style="5" bestFit="1" customWidth="1"/>
-    <col min="70" max="70" width="23.75" style="5" bestFit="1" customWidth="1"/>
-    <col min="71" max="72" width="32.375" style="5" bestFit="1" customWidth="1"/>
-    <col min="73" max="73" width="30.125" style="5" bestFit="1" customWidth="1"/>
-    <col min="74" max="74" width="20.125" style="5" bestFit="1" customWidth="1"/>
-    <col min="75" max="75" width="31.25" style="5" bestFit="1" customWidth="1"/>
-    <col min="76" max="76" width="31.5" style="5" bestFit="1" customWidth="1"/>
-    <col min="77" max="77" width="41.5" style="5" bestFit="1" customWidth="1"/>
-    <col min="78" max="78" width="43.125" style="5" bestFit="1" customWidth="1"/>
-    <col min="79" max="79" width="44" style="5" bestFit="1" customWidth="1"/>
-    <col min="80" max="80" width="39.5" style="5" bestFit="1" customWidth="1"/>
-    <col min="81" max="81" width="40.625" style="5" bestFit="1" customWidth="1"/>
-    <col min="82" max="82" width="41.5" style="5" bestFit="1" customWidth="1"/>
-    <col min="83" max="83" width="38.125" style="5" bestFit="1" customWidth="1"/>
-    <col min="84" max="84" width="39.875" style="5" bestFit="1" customWidth="1"/>
-    <col min="85" max="85" width="40.625" style="5" bestFit="1" customWidth="1"/>
-    <col min="86" max="86" width="31.5" style="5" bestFit="1" customWidth="1"/>
-    <col min="87" max="87" width="51.75" style="5" bestFit="1" customWidth="1"/>
-    <col min="88" max="88" width="48.25" style="5" bestFit="1" customWidth="1"/>
-    <col min="89" max="89" width="47.875" style="5" bestFit="1" customWidth="1"/>
-    <col min="90" max="90" width="67" style="5" bestFit="1" customWidth="1"/>
-    <col min="91" max="91" width="48.75" style="5" bestFit="1" customWidth="1"/>
-    <col min="92" max="92" width="62" style="5" bestFit="1" customWidth="1"/>
-    <col min="93" max="93" width="43.75" style="5" bestFit="1" customWidth="1"/>
+    <col min="52" max="52" width="25.75" style="5" bestFit="1" customWidth="1"/>
+    <col min="53" max="53" width="23.75" style="5" bestFit="1" customWidth="1"/>
+    <col min="54" max="54" width="23.875" style="5" bestFit="1" customWidth="1"/>
+    <col min="55" max="55" width="35.375" style="5" bestFit="1" customWidth="1"/>
+    <col min="56" max="56" width="22.875" style="5" bestFit="1" customWidth="1"/>
+    <col min="57" max="57" width="23" style="5" bestFit="1" customWidth="1"/>
+    <col min="58" max="58" width="34.5" style="5" bestFit="1" customWidth="1"/>
+    <col min="59" max="59" width="30" style="5" bestFit="1" customWidth="1"/>
+    <col min="60" max="60" width="29.125" style="5" bestFit="1" customWidth="1"/>
+    <col min="61" max="61" width="29.25" style="5" bestFit="1" customWidth="1"/>
+    <col min="62" max="62" width="31.875" style="5" bestFit="1" customWidth="1"/>
+    <col min="63" max="63" width="32.875" style="5" bestFit="1" customWidth="1"/>
+    <col min="64" max="64" width="26.375" style="5" bestFit="1" customWidth="1"/>
+    <col min="65" max="65" width="21" style="5" bestFit="1" customWidth="1"/>
+    <col min="66" max="66" width="21.625" style="5" bestFit="1" customWidth="1"/>
+    <col min="67" max="67" width="36.5" style="5" bestFit="1" customWidth="1"/>
+    <col min="68" max="68" width="29.25" style="5" bestFit="1" customWidth="1"/>
+    <col min="69" max="69" width="20.5" style="5" bestFit="1" customWidth="1"/>
+    <col min="70" max="70" width="22.875" style="5" bestFit="1" customWidth="1"/>
+    <col min="71" max="71" width="31.625" style="5" bestFit="1" customWidth="1"/>
+    <col min="72" max="72" width="31.5" style="5" bestFit="1" customWidth="1"/>
+    <col min="73" max="73" width="28.25" style="5" bestFit="1" customWidth="1"/>
+    <col min="74" max="74" width="19.125" style="5" bestFit="1" customWidth="1"/>
+    <col min="75" max="75" width="30" style="5" bestFit="1" customWidth="1"/>
+    <col min="76" max="76" width="30.375" style="5" bestFit="1" customWidth="1"/>
+    <col min="77" max="77" width="40.25" style="5" bestFit="1" customWidth="1"/>
+    <col min="78" max="78" width="41.625" style="5" bestFit="1" customWidth="1"/>
+    <col min="79" max="79" width="42.5" style="5" bestFit="1" customWidth="1"/>
+    <col min="80" max="80" width="38.875" style="5" bestFit="1" customWidth="1"/>
+    <col min="81" max="81" width="39.625" style="5" bestFit="1" customWidth="1"/>
+    <col min="82" max="82" width="40.5" style="5" bestFit="1" customWidth="1"/>
+    <col min="83" max="83" width="37" style="5" bestFit="1" customWidth="1"/>
+    <col min="84" max="84" width="38.375" style="5" bestFit="1" customWidth="1"/>
+    <col min="85" max="85" width="39.25" style="5" bestFit="1" customWidth="1"/>
+    <col min="86" max="86" width="30.5" style="5" bestFit="1" customWidth="1"/>
+    <col min="87" max="87" width="48.625" style="5" bestFit="1" customWidth="1"/>
+    <col min="88" max="88" width="46.75" style="5" bestFit="1" customWidth="1"/>
+    <col min="89" max="89" width="46.125" style="5" bestFit="1" customWidth="1"/>
+    <col min="90" max="90" width="64.125" style="5" bestFit="1" customWidth="1"/>
+    <col min="91" max="91" width="47" style="5" bestFit="1" customWidth="1"/>
+    <col min="92" max="92" width="59.5" style="5" bestFit="1" customWidth="1"/>
+    <col min="93" max="93" width="42.5" style="5" bestFit="1" customWidth="1"/>
     <col min="94" max="94" width="24.75" style="5" bestFit="1" customWidth="1"/>
     <col min="95" max="95" width="25.5" style="5" bestFit="1" customWidth="1"/>
     <col min="96" max="96" width="26.375" style="5" bestFit="1" customWidth="1"/>
-    <col min="97" max="97" width="28.125" style="5" bestFit="1" customWidth="1"/>
-    <col min="98" max="98" width="26.5" style="5" bestFit="1" customWidth="1"/>
-    <col min="99" max="99" width="25.625" style="5" bestFit="1" customWidth="1"/>
-    <col min="100" max="100" width="26" style="5" bestFit="1" customWidth="1"/>
+    <col min="97" max="97" width="26.75" style="5" bestFit="1" customWidth="1"/>
+    <col min="98" max="98" width="24.875" style="5" bestFit="1" customWidth="1"/>
+    <col min="99" max="99" width="23.5" style="5" bestFit="1" customWidth="1"/>
+    <col min="100" max="100" width="24.375" style="5" bestFit="1" customWidth="1"/>
     <col min="101" max="101" width="16.5" style="6" bestFit="1" customWidth="1"/>
-    <col min="102" max="102" width="27.125" style="5" bestFit="1" customWidth="1"/>
-    <col min="103" max="103" width="24.625" style="5" bestFit="1" customWidth="1"/>
-    <col min="104" max="104" width="24.875" style="5" bestFit="1" customWidth="1"/>
-    <col min="105" max="105" width="37" style="5" bestFit="1" customWidth="1"/>
-    <col min="106" max="106" width="23.5" style="5" bestFit="1" customWidth="1"/>
-    <col min="107" max="107" width="23.75" style="5" bestFit="1" customWidth="1"/>
-    <col min="108" max="108" width="36" style="5" bestFit="1" customWidth="1"/>
-    <col min="109" max="109" width="30.625" style="5" bestFit="1" customWidth="1"/>
-    <col min="110" max="110" width="29.5" style="5" bestFit="1" customWidth="1"/>
-    <col min="111" max="111" width="30.125" style="5" bestFit="1" customWidth="1"/>
-    <col min="112" max="112" width="32.375" style="5" bestFit="1" customWidth="1"/>
-    <col min="113" max="113" width="34" style="5" bestFit="1" customWidth="1"/>
-    <col min="114" max="114" width="27.125" style="5" bestFit="1" customWidth="1"/>
-    <col min="115" max="115" width="21.25" style="5" bestFit="1" customWidth="1"/>
-    <col min="116" max="116" width="22.125" style="5" bestFit="1" customWidth="1"/>
-    <col min="117" max="117" width="37.375" style="5" bestFit="1" customWidth="1"/>
-    <col min="118" max="118" width="30.375" style="5" bestFit="1" customWidth="1"/>
-    <col min="119" max="119" width="21" style="5" bestFit="1" customWidth="1"/>
-    <col min="120" max="120" width="23.75" style="5" bestFit="1" customWidth="1"/>
-    <col min="121" max="122" width="32.375" style="5" bestFit="1" customWidth="1"/>
-    <col min="123" max="123" width="30.125" style="5" bestFit="1" customWidth="1"/>
-    <col min="124" max="124" width="20.125" style="5" bestFit="1" customWidth="1"/>
-    <col min="125" max="125" width="31.25" style="5" bestFit="1" customWidth="1"/>
-    <col min="126" max="126" width="31.5" style="5" bestFit="1" customWidth="1"/>
-    <col min="127" max="127" width="41.5" style="5" bestFit="1" customWidth="1"/>
-    <col min="128" max="128" width="43.125" style="5" bestFit="1" customWidth="1"/>
-    <col min="129" max="129" width="44" style="5" bestFit="1" customWidth="1"/>
-    <col min="130" max="130" width="39.5" style="5" bestFit="1" customWidth="1"/>
-    <col min="131" max="131" width="40.625" style="5" bestFit="1" customWidth="1"/>
-    <col min="132" max="132" width="41.5" style="5" bestFit="1" customWidth="1"/>
-    <col min="133" max="133" width="38.125" style="5" bestFit="1" customWidth="1"/>
-    <col min="134" max="134" width="39.875" style="5" bestFit="1" customWidth="1"/>
-    <col min="135" max="135" width="40.625" style="5" bestFit="1" customWidth="1"/>
-    <col min="136" max="136" width="31.5" style="5" bestFit="1" customWidth="1"/>
-    <col min="137" max="137" width="51.75" style="5" bestFit="1" customWidth="1"/>
-    <col min="138" max="138" width="48.25" style="5" bestFit="1" customWidth="1"/>
-    <col min="139" max="139" width="47.875" style="5" bestFit="1" customWidth="1"/>
-    <col min="140" max="140" width="67" style="5" bestFit="1" customWidth="1"/>
-    <col min="141" max="141" width="48.75" style="5" bestFit="1" customWidth="1"/>
-    <col min="142" max="142" width="62" style="5" bestFit="1" customWidth="1"/>
-    <col min="143" max="143" width="43.75" style="5" bestFit="1" customWidth="1"/>
+    <col min="102" max="102" width="25.75" style="5" bestFit="1" customWidth="1"/>
+    <col min="103" max="103" width="23.75" style="5" bestFit="1" customWidth="1"/>
+    <col min="104" max="104" width="23.875" style="5" bestFit="1" customWidth="1"/>
+    <col min="105" max="105" width="35.375" style="5" bestFit="1" customWidth="1"/>
+    <col min="106" max="106" width="22.875" style="5" bestFit="1" customWidth="1"/>
+    <col min="107" max="107" width="23" style="5" bestFit="1" customWidth="1"/>
+    <col min="108" max="108" width="34.5" style="5" bestFit="1" customWidth="1"/>
+    <col min="109" max="109" width="30" style="5" bestFit="1" customWidth="1"/>
+    <col min="110" max="110" width="29.125" style="5" bestFit="1" customWidth="1"/>
+    <col min="111" max="111" width="29.25" style="5" bestFit="1" customWidth="1"/>
+    <col min="112" max="112" width="31.875" style="5" bestFit="1" customWidth="1"/>
+    <col min="113" max="113" width="32.875" style="5" bestFit="1" customWidth="1"/>
+    <col min="114" max="114" width="26.375" style="5" bestFit="1" customWidth="1"/>
+    <col min="115" max="115" width="21" style="5" bestFit="1" customWidth="1"/>
+    <col min="116" max="116" width="21.625" style="5" bestFit="1" customWidth="1"/>
+    <col min="117" max="117" width="36.5" style="5" bestFit="1" customWidth="1"/>
+    <col min="118" max="118" width="29.25" style="5" bestFit="1" customWidth="1"/>
+    <col min="119" max="119" width="20.5" style="5" bestFit="1" customWidth="1"/>
+    <col min="120" max="120" width="22.875" style="5" bestFit="1" customWidth="1"/>
+    <col min="121" max="121" width="31.625" style="5" bestFit="1" customWidth="1"/>
+    <col min="122" max="122" width="31.5" style="5" bestFit="1" customWidth="1"/>
+    <col min="123" max="123" width="28.25" style="5" bestFit="1" customWidth="1"/>
+    <col min="124" max="124" width="19.125" style="5" bestFit="1" customWidth="1"/>
+    <col min="125" max="125" width="30" style="5" bestFit="1" customWidth="1"/>
+    <col min="126" max="126" width="30.375" style="5" bestFit="1" customWidth="1"/>
+    <col min="127" max="127" width="40.25" style="5" bestFit="1" customWidth="1"/>
+    <col min="128" max="128" width="41.625" style="5" bestFit="1" customWidth="1"/>
+    <col min="129" max="129" width="42.5" style="5" bestFit="1" customWidth="1"/>
+    <col min="130" max="130" width="38.875" style="5" bestFit="1" customWidth="1"/>
+    <col min="131" max="131" width="39.625" style="5" bestFit="1" customWidth="1"/>
+    <col min="132" max="132" width="40.5" style="5" bestFit="1" customWidth="1"/>
+    <col min="133" max="133" width="37" style="5" bestFit="1" customWidth="1"/>
+    <col min="134" max="134" width="38.375" style="5" bestFit="1" customWidth="1"/>
+    <col min="135" max="135" width="39.25" style="5" bestFit="1" customWidth="1"/>
+    <col min="136" max="136" width="30.5" style="5" bestFit="1" customWidth="1"/>
+    <col min="137" max="137" width="48.625" style="5" bestFit="1" customWidth="1"/>
+    <col min="138" max="138" width="46.75" style="5" bestFit="1" customWidth="1"/>
+    <col min="139" max="139" width="46.125" style="5" bestFit="1" customWidth="1"/>
+    <col min="140" max="140" width="64.125" style="5" bestFit="1" customWidth="1"/>
+    <col min="141" max="141" width="47" style="5" bestFit="1" customWidth="1"/>
+    <col min="142" max="142" width="59.5" style="5" bestFit="1" customWidth="1"/>
+    <col min="143" max="143" width="42.5" style="5" bestFit="1" customWidth="1"/>
     <col min="144" max="144" width="24.75" style="5" bestFit="1" customWidth="1"/>
     <col min="145" max="145" width="25.5" style="5" bestFit="1" customWidth="1"/>
     <col min="146" max="146" width="26.375" style="5" bestFit="1" customWidth="1"/>
-    <col min="147" max="147" width="28.125" style="5" bestFit="1" customWidth="1"/>
-    <col min="148" max="148" width="26.5" style="5" bestFit="1" customWidth="1"/>
-    <col min="149" max="149" width="25.625" style="5" bestFit="1" customWidth="1"/>
-    <col min="150" max="150" width="26" style="5" bestFit="1" customWidth="1"/>
+    <col min="147" max="147" width="26.75" style="5" bestFit="1" customWidth="1"/>
+    <col min="148" max="148" width="24.875" style="5" bestFit="1" customWidth="1"/>
+    <col min="149" max="149" width="23.5" style="5" bestFit="1" customWidth="1"/>
+    <col min="150" max="150" width="24.375" style="5" bestFit="1" customWidth="1"/>
     <col min="151" max="151" width="16.5" style="6" bestFit="1" customWidth="1"/>
-    <col min="152" max="152" width="27.125" style="5" bestFit="1" customWidth="1"/>
-    <col min="153" max="153" width="24.625" style="5" bestFit="1" customWidth="1"/>
-    <col min="154" max="154" width="24.875" style="5" bestFit="1" customWidth="1"/>
-    <col min="155" max="155" width="37" style="5" bestFit="1" customWidth="1"/>
-    <col min="156" max="156" width="23.5" style="5" bestFit="1" customWidth="1"/>
-    <col min="157" max="157" width="23.75" style="5" bestFit="1" customWidth="1"/>
-    <col min="158" max="158" width="36" style="5" bestFit="1" customWidth="1"/>
-    <col min="159" max="159" width="30.625" style="5" bestFit="1" customWidth="1"/>
-    <col min="160" max="160" width="29.5" style="5" bestFit="1" customWidth="1"/>
-    <col min="161" max="161" width="30.125" style="5" bestFit="1" customWidth="1"/>
-    <col min="162" max="162" width="32.375" style="5" bestFit="1" customWidth="1"/>
-    <col min="163" max="163" width="34" style="5" bestFit="1" customWidth="1"/>
-    <col min="164" max="164" width="27.125" style="5" bestFit="1" customWidth="1"/>
-    <col min="165" max="165" width="21.25" style="5" bestFit="1" customWidth="1"/>
-    <col min="166" max="166" width="22.125" style="5" bestFit="1" customWidth="1"/>
-    <col min="167" max="167" width="37.375" style="5" bestFit="1" customWidth="1"/>
-    <col min="168" max="168" width="30.375" style="5" bestFit="1" customWidth="1"/>
-    <col min="169" max="169" width="21" style="5" bestFit="1" customWidth="1"/>
-    <col min="170" max="170" width="23.75" style="5" bestFit="1" customWidth="1"/>
-    <col min="171" max="172" width="32.375" style="5" bestFit="1" customWidth="1"/>
-    <col min="173" max="173" width="30.125" style="5" bestFit="1" customWidth="1"/>
-    <col min="174" max="174" width="20.125" style="5" bestFit="1" customWidth="1"/>
-    <col min="175" max="175" width="31.25" style="5" bestFit="1" customWidth="1"/>
-    <col min="176" max="176" width="31.5" style="5" bestFit="1" customWidth="1"/>
-    <col min="177" max="177" width="41.5" style="5" bestFit="1" customWidth="1"/>
-    <col min="178" max="178" width="43.125" style="5" bestFit="1" customWidth="1"/>
-    <col min="179" max="179" width="44" style="5" bestFit="1" customWidth="1"/>
-    <col min="180" max="180" width="39.5" style="5" bestFit="1" customWidth="1"/>
-    <col min="181" max="181" width="40.625" style="5" bestFit="1" customWidth="1"/>
-    <col min="182" max="182" width="41.5" style="5" bestFit="1" customWidth="1"/>
-    <col min="183" max="183" width="38.125" style="5" bestFit="1" customWidth="1"/>
-    <col min="184" max="184" width="39.875" style="5" bestFit="1" customWidth="1"/>
-    <col min="185" max="185" width="40.625" style="5" bestFit="1" customWidth="1"/>
-    <col min="186" max="186" width="31.5" style="5" bestFit="1" customWidth="1"/>
-    <col min="187" max="187" width="51.75" style="5" bestFit="1" customWidth="1"/>
-    <col min="188" max="188" width="48.25" style="5" bestFit="1" customWidth="1"/>
-    <col min="189" max="189" width="47.875" style="5" bestFit="1" customWidth="1"/>
-    <col min="190" max="190" width="67" style="5" bestFit="1" customWidth="1"/>
-    <col min="191" max="191" width="48.75" style="5" bestFit="1" customWidth="1"/>
-    <col min="192" max="192" width="62" style="5" bestFit="1" customWidth="1"/>
-    <col min="193" max="193" width="43.75" style="5" bestFit="1" customWidth="1"/>
+    <col min="152" max="152" width="25.75" style="5" bestFit="1" customWidth="1"/>
+    <col min="153" max="153" width="23.75" style="5" bestFit="1" customWidth="1"/>
+    <col min="154" max="154" width="23.875" style="5" bestFit="1" customWidth="1"/>
+    <col min="155" max="155" width="35.375" style="5" bestFit="1" customWidth="1"/>
+    <col min="156" max="156" width="22.875" style="5" bestFit="1" customWidth="1"/>
+    <col min="157" max="157" width="23" style="5" bestFit="1" customWidth="1"/>
+    <col min="158" max="158" width="34.5" style="5" bestFit="1" customWidth="1"/>
+    <col min="159" max="159" width="30" style="5" bestFit="1" customWidth="1"/>
+    <col min="160" max="160" width="29.125" style="5" bestFit="1" customWidth="1"/>
+    <col min="161" max="161" width="29.25" style="5" bestFit="1" customWidth="1"/>
+    <col min="162" max="162" width="31.875" style="5" bestFit="1" customWidth="1"/>
+    <col min="163" max="163" width="32.875" style="5" bestFit="1" customWidth="1"/>
+    <col min="164" max="164" width="26.375" style="5" bestFit="1" customWidth="1"/>
+    <col min="165" max="165" width="21" style="5" bestFit="1" customWidth="1"/>
+    <col min="166" max="166" width="21.625" style="5" bestFit="1" customWidth="1"/>
+    <col min="167" max="167" width="36.5" style="5" bestFit="1" customWidth="1"/>
+    <col min="168" max="168" width="29.25" style="5" bestFit="1" customWidth="1"/>
+    <col min="169" max="169" width="20.5" style="5" bestFit="1" customWidth="1"/>
+    <col min="170" max="170" width="22.875" style="5" bestFit="1" customWidth="1"/>
+    <col min="171" max="171" width="31.625" style="5" bestFit="1" customWidth="1"/>
+    <col min="172" max="172" width="31.5" style="5" bestFit="1" customWidth="1"/>
+    <col min="173" max="173" width="28.25" style="5" bestFit="1" customWidth="1"/>
+    <col min="174" max="174" width="19.125" style="5" bestFit="1" customWidth="1"/>
+    <col min="175" max="175" width="30" style="5" bestFit="1" customWidth="1"/>
+    <col min="176" max="176" width="30.375" style="5" bestFit="1" customWidth="1"/>
+    <col min="177" max="177" width="40.25" style="5" bestFit="1" customWidth="1"/>
+    <col min="178" max="178" width="41.625" style="5" bestFit="1" customWidth="1"/>
+    <col min="179" max="179" width="42.5" style="5" bestFit="1" customWidth="1"/>
+    <col min="180" max="180" width="38.875" style="5" bestFit="1" customWidth="1"/>
+    <col min="181" max="181" width="39.625" style="5" bestFit="1" customWidth="1"/>
+    <col min="182" max="182" width="40.5" style="5" bestFit="1" customWidth="1"/>
+    <col min="183" max="183" width="37" style="5" bestFit="1" customWidth="1"/>
+    <col min="184" max="184" width="38.375" style="5" bestFit="1" customWidth="1"/>
+    <col min="185" max="185" width="39.25" style="5" bestFit="1" customWidth="1"/>
+    <col min="186" max="186" width="30.5" style="5" bestFit="1" customWidth="1"/>
+    <col min="187" max="187" width="48.625" style="5" bestFit="1" customWidth="1"/>
+    <col min="188" max="188" width="46.75" style="5" bestFit="1" customWidth="1"/>
+    <col min="189" max="189" width="46.125" style="5" bestFit="1" customWidth="1"/>
+    <col min="190" max="190" width="64.125" style="5" bestFit="1" customWidth="1"/>
+    <col min="191" max="191" width="47" style="5" bestFit="1" customWidth="1"/>
+    <col min="192" max="192" width="59.5" style="5" bestFit="1" customWidth="1"/>
+    <col min="193" max="193" width="42.5" style="5" bestFit="1" customWidth="1"/>
     <col min="194" max="194" width="24.75" style="5" bestFit="1" customWidth="1"/>
     <col min="195" max="195" width="25.5" style="5" bestFit="1" customWidth="1"/>
     <col min="196" max="196" width="26.375" style="5" bestFit="1" customWidth="1"/>
-    <col min="197" max="197" width="28.125" style="5" bestFit="1" customWidth="1"/>
-    <col min="198" max="198" width="26.5" style="5" bestFit="1" customWidth="1"/>
-    <col min="199" max="199" width="25.625" style="5" bestFit="1" customWidth="1"/>
-    <col min="200" max="200" width="26" style="5" bestFit="1" customWidth="1"/>
+    <col min="197" max="197" width="26.75" style="5" bestFit="1" customWidth="1"/>
+    <col min="198" max="198" width="24.875" style="5" bestFit="1" customWidth="1"/>
+    <col min="199" max="199" width="23.5" style="5" bestFit="1" customWidth="1"/>
+    <col min="200" max="200" width="24.375" style="5" bestFit="1" customWidth="1"/>
     <col min="201" max="201" width="16.5" style="6" bestFit="1" customWidth="1"/>
     <col min="202" max="202" width="12.75" style="5" bestFit="1" customWidth="1"/>
-    <col min="203" max="203" width="47" style="2" bestFit="1" customWidth="1"/>
-    <col min="204" max="204" width="59.5" style="2" bestFit="1" customWidth="1"/>
-    <col min="205" max="205" width="42.5" style="2" bestFit="1" customWidth="1"/>
-    <col min="206" max="206" width="24.75" style="2" bestFit="1" customWidth="1"/>
-    <col min="207" max="207" width="25.5" style="2" bestFit="1" customWidth="1"/>
-    <col min="208" max="208" width="26.375" style="2" bestFit="1" customWidth="1"/>
-    <col min="209" max="209" width="26.75" style="2" bestFit="1" customWidth="1"/>
-    <col min="210" max="210" width="24.875" style="2" bestFit="1" customWidth="1"/>
-    <col min="211" max="211" width="23.5" style="2" bestFit="1" customWidth="1"/>
-    <col min="212" max="212" width="24.375" style="2" bestFit="1" customWidth="1"/>
-    <col min="213" max="213" width="16.5" style="2" bestFit="1" customWidth="1"/>
-    <col min="214" max="217" width="19.25" style="2" bestFit="1" customWidth="1"/>
-    <col min="218" max="16384" width="9" style="2"/>
+    <col min="203" max="203" width="47" style="3" bestFit="1" customWidth="1"/>
+    <col min="204" max="204" width="59.5" style="3" bestFit="1" customWidth="1"/>
+    <col min="205" max="205" width="42.5" style="3" bestFit="1" customWidth="1"/>
+    <col min="206" max="206" width="24.75" style="3" bestFit="1" customWidth="1"/>
+    <col min="207" max="207" width="25.5" style="3" bestFit="1" customWidth="1"/>
+    <col min="208" max="208" width="26.375" style="3" bestFit="1" customWidth="1"/>
+    <col min="209" max="209" width="26.75" style="3" bestFit="1" customWidth="1"/>
+    <col min="210" max="210" width="24.875" style="3" bestFit="1" customWidth="1"/>
+    <col min="211" max="211" width="23.5" style="3" bestFit="1" customWidth="1"/>
+    <col min="212" max="212" width="24.375" style="3" bestFit="1" customWidth="1"/>
+    <col min="213" max="213" width="16.5" style="3" bestFit="1" customWidth="1"/>
+    <col min="214" max="217" width="19.25" style="3" bestFit="1" customWidth="1"/>
+    <col min="218" max="16384" width="9" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:202" ht="15" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:202" ht="90" x14ac:dyDescent="0.15">
       <c r="A1" s="1" t="s">
         <v>564</v>
       </c>
-      <c r="B1" s="7" t="s">
+      <c r="B1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="7" t="s">
+      <c r="C1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="7" t="s">
+      <c r="D1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="7" t="s">
+      <c r="E1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="7" t="s">
+      <c r="F1" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="G1" s="7" t="s">
+      <c r="G1" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="H1" s="7" t="s">
+      <c r="H1" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="I1" s="7" t="s">
+      <c r="I1" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="J1" s="7" t="s">
+      <c r="J1" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="K1" s="7" t="s">
+      <c r="K1" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="L1" s="7" t="s">
+      <c r="L1" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="M1" s="7" t="s">
+      <c r="M1" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="N1" s="7" t="s">
+      <c r="N1" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="O1" s="7" t="s">
+      <c r="O1" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="P1" s="7" t="s">
+      <c r="P1" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="Q1" s="7" t="s">
+      <c r="Q1" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="R1" s="7" t="s">
+      <c r="R1" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="S1" s="7" t="s">
+      <c r="S1" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="T1" s="7" t="s">
+      <c r="T1" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="U1" s="7" t="s">
+      <c r="U1" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="V1" s="7" t="s">
+      <c r="V1" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="W1" s="7" t="s">
+      <c r="W1" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="X1" s="7" t="s">
+      <c r="X1" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="Y1" s="7" t="s">
+      <c r="Y1" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="Z1" s="7" t="s">
+      <c r="Z1" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="AA1" s="7" t="s">
+      <c r="AA1" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="AB1" s="7" t="s">
+      <c r="AB1" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="AC1" s="7" t="s">
+      <c r="AC1" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="AD1" s="7" t="s">
+      <c r="AD1" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="AE1" s="7" t="s">
+      <c r="AE1" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="AF1" s="7" t="s">
+      <c r="AF1" s="2" t="s">
         <v>318</v>
       </c>
-      <c r="AG1" s="7" t="s">
+      <c r="AG1" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="AH1" s="7" t="s">
+      <c r="AH1" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="AI1" s="7" t="s">
+      <c r="AI1" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="AJ1" s="7" t="s">
+      <c r="AJ1" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="AK1" s="7" t="s">
+      <c r="AK1" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="AL1" s="7" t="s">
+      <c r="AL1" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="AM1" s="7" t="s">
+      <c r="AM1" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="AN1" s="7" t="s">
+      <c r="AN1" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="AO1" s="7" t="s">
+      <c r="AO1" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="AP1" s="7" t="s">
+      <c r="AP1" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="AQ1" s="7" t="s">
+      <c r="AQ1" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="AR1" s="7" t="s">
+      <c r="AR1" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="AS1" s="7" t="s">
+      <c r="AS1" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="AT1" s="7" t="s">
+      <c r="AT1" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="AU1" s="7" t="s">
+      <c r="AU1" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="AV1" s="7" t="s">
+      <c r="AV1" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="AW1" s="7" t="s">
+      <c r="AW1" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="AX1" s="7" t="s">
+      <c r="AX1" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="AY1" s="7" t="s">
+      <c r="AY1" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="AZ1" s="7" t="s">
+      <c r="AZ1" s="2" t="s">
         <v>49</v>
       </c>
-      <c r="BA1" s="7" t="s">
+      <c r="BA1" s="2" t="s">
         <v>50</v>
       </c>
-      <c r="BB1" s="7" t="s">
+      <c r="BB1" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="BC1" s="7" t="s">
+      <c r="BC1" s="2" t="s">
         <v>52</v>
       </c>
-      <c r="BD1" s="7" t="s">
+      <c r="BD1" s="2" t="s">
         <v>53</v>
       </c>
-      <c r="BE1" s="7" t="s">
+      <c r="BE1" s="2" t="s">
         <v>54</v>
       </c>
-      <c r="BF1" s="7" t="s">
+      <c r="BF1" s="2" t="s">
         <v>55</v>
       </c>
-      <c r="BG1" s="7" t="s">
+      <c r="BG1" s="2" t="s">
         <v>56</v>
       </c>
-      <c r="BH1" s="7" t="s">
+      <c r="BH1" s="2" t="s">
         <v>57</v>
       </c>
-      <c r="BI1" s="7" t="s">
+      <c r="BI1" s="2" t="s">
         <v>58</v>
       </c>
-      <c r="BJ1" s="7" t="s">
+      <c r="BJ1" s="2" t="s">
         <v>59</v>
       </c>
-      <c r="BK1" s="7" t="s">
+      <c r="BK1" s="2" t="s">
         <v>60</v>
       </c>
-      <c r="BL1" s="7" t="s">
+      <c r="BL1" s="2" t="s">
         <v>61</v>
       </c>
-      <c r="BM1" s="7" t="s">
+      <c r="BM1" s="2" t="s">
         <v>62</v>
       </c>
-      <c r="BN1" s="7" t="s">
+      <c r="BN1" s="2" t="s">
         <v>63</v>
       </c>
-      <c r="BO1" s="7" t="s">
+      <c r="BO1" s="2" t="s">
         <v>64</v>
       </c>
-      <c r="BP1" s="7" t="s">
+      <c r="BP1" s="2" t="s">
         <v>65</v>
       </c>
-      <c r="BQ1" s="7" t="s">
+      <c r="BQ1" s="2" t="s">
         <v>66</v>
       </c>
-      <c r="BR1" s="7" t="s">
+      <c r="BR1" s="2" t="s">
         <v>67</v>
       </c>
-      <c r="BS1" s="7" t="s">
+      <c r="BS1" s="2" t="s">
         <v>68</v>
       </c>
-      <c r="BT1" s="7" t="s">
+      <c r="BT1" s="2" t="s">
         <v>69</v>
       </c>
-      <c r="BU1" s="7" t="s">
+      <c r="BU1" s="2" t="s">
         <v>70</v>
       </c>
-      <c r="BV1" s="7" t="s">
+      <c r="BV1" s="2" t="s">
         <v>71</v>
       </c>
-      <c r="BW1" s="7" t="s">
+      <c r="BW1" s="2" t="s">
         <v>72</v>
       </c>
-      <c r="BX1" s="7" t="s">
+      <c r="BX1" s="2" t="s">
         <v>73</v>
       </c>
-      <c r="BY1" s="7" t="s">
+      <c r="BY1" s="2" t="s">
         <v>74</v>
       </c>
-      <c r="BZ1" s="7" t="s">
+      <c r="BZ1" s="2" t="s">
         <v>75</v>
       </c>
-      <c r="CA1" s="7" t="s">
+      <c r="CA1" s="2" t="s">
         <v>76</v>
       </c>
-      <c r="CB1" s="7" t="s">
+      <c r="CB1" s="2" t="s">
         <v>77</v>
       </c>
-      <c r="CC1" s="7" t="s">
+      <c r="CC1" s="2" t="s">
         <v>78</v>
       </c>
-      <c r="CD1" s="7" t="s">
+      <c r="CD1" s="2" t="s">
         <v>79</v>
       </c>
-      <c r="CE1" s="7" t="s">
+      <c r="CE1" s="2" t="s">
         <v>80</v>
       </c>
-      <c r="CF1" s="7" t="s">
+      <c r="CF1" s="2" t="s">
         <v>81</v>
       </c>
-      <c r="CG1" s="7" t="s">
+      <c r="CG1" s="2" t="s">
         <v>82</v>
       </c>
-      <c r="CH1" s="7" t="s">
+      <c r="CH1" s="2" t="s">
         <v>83</v>
       </c>
-      <c r="CI1" s="7" t="s">
+      <c r="CI1" s="2" t="s">
         <v>84</v>
       </c>
-      <c r="CJ1" s="7" t="s">
+      <c r="CJ1" s="2" t="s">
         <v>85</v>
       </c>
-      <c r="CK1" s="7" t="s">
+      <c r="CK1" s="2" t="s">
         <v>86</v>
       </c>
-      <c r="CL1" s="7" t="s">
+      <c r="CL1" s="2" t="s">
         <v>87</v>
       </c>
-      <c r="CM1" s="7" t="s">
+      <c r="CM1" s="2" t="s">
         <v>88</v>
       </c>
-      <c r="CN1" s="7" t="s">
+      <c r="CN1" s="2" t="s">
         <v>89</v>
       </c>
-      <c r="CO1" s="7" t="s">
+      <c r="CO1" s="2" t="s">
         <v>90</v>
       </c>
-      <c r="CP1" s="7" t="s">
+      <c r="CP1" s="2" t="s">
         <v>91</v>
       </c>
-      <c r="CQ1" s="7" t="s">
+      <c r="CQ1" s="2" t="s">
         <v>92</v>
       </c>
-      <c r="CR1" s="7" t="s">
+      <c r="CR1" s="2" t="s">
         <v>93</v>
       </c>
-      <c r="CS1" s="7" t="s">
+      <c r="CS1" s="2" t="s">
         <v>94</v>
       </c>
-      <c r="CT1" s="7" t="s">
+      <c r="CT1" s="2" t="s">
         <v>95</v>
       </c>
-      <c r="CU1" s="7" t="s">
+      <c r="CU1" s="2" t="s">
         <v>96</v>
       </c>
-      <c r="CV1" s="7" t="s">
+      <c r="CV1" s="2" t="s">
         <v>97</v>
       </c>
-      <c r="CW1" s="7" t="s">
+      <c r="CW1" s="2" t="s">
         <v>98</v>
       </c>
-      <c r="CX1" s="7" t="s">
+      <c r="CX1" s="2" t="s">
         <v>99</v>
       </c>
-      <c r="CY1" s="7" t="s">
+      <c r="CY1" s="2" t="s">
         <v>100</v>
       </c>
-      <c r="CZ1" s="7" t="s">
+      <c r="CZ1" s="2" t="s">
         <v>101</v>
       </c>
-      <c r="DA1" s="7" t="s">
+      <c r="DA1" s="2" t="s">
         <v>102</v>
       </c>
-      <c r="DB1" s="7" t="s">
+      <c r="DB1" s="2" t="s">
         <v>103</v>
       </c>
-      <c r="DC1" s="7" t="s">
+      <c r="DC1" s="2" t="s">
         <v>104</v>
       </c>
-      <c r="DD1" s="7" t="s">
+      <c r="DD1" s="2" t="s">
         <v>105</v>
       </c>
-      <c r="DE1" s="7" t="s">
+      <c r="DE1" s="2" t="s">
         <v>106</v>
       </c>
-      <c r="DF1" s="7" t="s">
+      <c r="DF1" s="2" t="s">
         <v>107</v>
       </c>
-      <c r="DG1" s="7" t="s">
+      <c r="DG1" s="2" t="s">
         <v>108</v>
       </c>
-      <c r="DH1" s="7" t="s">
+      <c r="DH1" s="2" t="s">
         <v>109</v>
       </c>
-      <c r="DI1" s="7" t="s">
+      <c r="DI1" s="2" t="s">
         <v>110</v>
       </c>
-      <c r="DJ1" s="7" t="s">
+      <c r="DJ1" s="2" t="s">
         <v>111</v>
       </c>
-      <c r="DK1" s="7" t="s">
+      <c r="DK1" s="2" t="s">
         <v>112</v>
       </c>
-      <c r="DL1" s="7" t="s">
+      <c r="DL1" s="2" t="s">
         <v>113</v>
       </c>
-      <c r="DM1" s="7" t="s">
+      <c r="DM1" s="2" t="s">
         <v>114</v>
       </c>
-      <c r="DN1" s="7" t="s">
+      <c r="DN1" s="2" t="s">
         <v>115</v>
       </c>
-      <c r="DO1" s="7" t="s">
+      <c r="DO1" s="2" t="s">
         <v>116</v>
       </c>
-      <c r="DP1" s="7" t="s">
+      <c r="DP1" s="2" t="s">
         <v>117</v>
       </c>
-      <c r="DQ1" s="7" t="s">
+      <c r="DQ1" s="2" t="s">
         <v>118</v>
       </c>
-      <c r="DR1" s="7" t="s">
+      <c r="DR1" s="2" t="s">
         <v>119</v>
       </c>
-      <c r="DS1" s="7" t="s">
+      <c r="DS1" s="2" t="s">
         <v>120</v>
       </c>
-      <c r="DT1" s="7" t="s">
+      <c r="DT1" s="2" t="s">
         <v>121</v>
       </c>
-      <c r="DU1" s="7" t="s">
+      <c r="DU1" s="2" t="s">
         <v>122</v>
       </c>
-      <c r="DV1" s="7" t="s">
+      <c r="DV1" s="2" t="s">
         <v>123</v>
       </c>
-      <c r="DW1" s="7" t="s">
+      <c r="DW1" s="2" t="s">
         <v>124</v>
       </c>
-      <c r="DX1" s="7" t="s">
+      <c r="DX1" s="2" t="s">
         <v>125</v>
       </c>
-      <c r="DY1" s="7" t="s">
+      <c r="DY1" s="2" t="s">
         <v>126</v>
       </c>
-      <c r="DZ1" s="7" t="s">
+      <c r="DZ1" s="2" t="s">
         <v>127</v>
       </c>
-      <c r="EA1" s="7" t="s">
+      <c r="EA1" s="2" t="s">
         <v>128</v>
       </c>
-      <c r="EB1" s="7" t="s">
+      <c r="EB1" s="2" t="s">
         <v>129</v>
       </c>
-      <c r="EC1" s="7" t="s">
+      <c r="EC1" s="2" t="s">
         <v>130</v>
       </c>
-      <c r="ED1" s="7" t="s">
+      <c r="ED1" s="2" t="s">
         <v>131</v>
       </c>
-      <c r="EE1" s="7" t="s">
+      <c r="EE1" s="2" t="s">
         <v>132</v>
       </c>
-      <c r="EF1" s="7" t="s">
+      <c r="EF1" s="2" t="s">
         <v>133</v>
       </c>
-      <c r="EG1" s="7" t="s">
+      <c r="EG1" s="2" t="s">
         <v>134</v>
       </c>
-      <c r="EH1" s="7" t="s">
+      <c r="EH1" s="2" t="s">
         <v>135</v>
       </c>
-      <c r="EI1" s="7" t="s">
+      <c r="EI1" s="2" t="s">
         <v>136</v>
       </c>
-      <c r="EJ1" s="7" t="s">
+      <c r="EJ1" s="2" t="s">
         <v>137</v>
       </c>
-      <c r="EK1" s="7" t="s">
+      <c r="EK1" s="2" t="s">
         <v>138</v>
       </c>
-      <c r="EL1" s="7" t="s">
+      <c r="EL1" s="2" t="s">
         <v>139</v>
       </c>
-      <c r="EM1" s="7" t="s">
+      <c r="EM1" s="2" t="s">
         <v>140</v>
       </c>
-      <c r="EN1" s="7" t="s">
+      <c r="EN1" s="2" t="s">
         <v>141</v>
       </c>
-      <c r="EO1" s="7" t="s">
+      <c r="EO1" s="2" t="s">
         <v>142</v>
       </c>
-      <c r="EP1" s="7" t="s">
+      <c r="EP1" s="2" t="s">
         <v>143</v>
       </c>
-      <c r="EQ1" s="7" t="s">
+      <c r="EQ1" s="2" t="s">
         <v>144</v>
       </c>
-      <c r="ER1" s="7" t="s">
+      <c r="ER1" s="2" t="s">
         <v>145</v>
       </c>
-      <c r="ES1" s="7" t="s">
+      <c r="ES1" s="2" t="s">
         <v>146</v>
       </c>
-      <c r="ET1" s="7" t="s">
+      <c r="ET1" s="2" t="s">
         <v>147</v>
       </c>
-      <c r="EU1" s="7" t="s">
+      <c r="EU1" s="2" t="s">
         <v>148</v>
       </c>
-      <c r="EV1" s="7" t="s">
+      <c r="EV1" s="2" t="s">
         <v>149</v>
       </c>
-      <c r="EW1" s="7" t="s">
+      <c r="EW1" s="2" t="s">
         <v>150</v>
       </c>
-      <c r="EX1" s="7" t="s">
+      <c r="EX1" s="2" t="s">
         <v>151</v>
       </c>
-      <c r="EY1" s="7" t="s">
+      <c r="EY1" s="2" t="s">
         <v>152</v>
       </c>
-      <c r="EZ1" s="7" t="s">
+      <c r="EZ1" s="2" t="s">
         <v>153</v>
       </c>
-      <c r="FA1" s="7" t="s">
+      <c r="FA1" s="2" t="s">
         <v>154</v>
       </c>
-      <c r="FB1" s="7" t="s">
+      <c r="FB1" s="2" t="s">
         <v>155</v>
       </c>
-      <c r="FC1" s="7" t="s">
+      <c r="FC1" s="2" t="s">
         <v>156</v>
       </c>
-      <c r="FD1" s="7" t="s">
+      <c r="FD1" s="2" t="s">
         <v>157</v>
       </c>
-      <c r="FE1" s="7" t="s">
+      <c r="FE1" s="2" t="s">
         <v>158</v>
       </c>
-      <c r="FF1" s="7" t="s">
+      <c r="FF1" s="2" t="s">
         <v>159</v>
       </c>
-      <c r="FG1" s="7" t="s">
+      <c r="FG1" s="2" t="s">
         <v>160</v>
       </c>
-      <c r="FH1" s="7" t="s">
+      <c r="FH1" s="2" t="s">
         <v>161</v>
       </c>
-      <c r="FI1" s="7" t="s">
+      <c r="FI1" s="2" t="s">
         <v>162</v>
       </c>
-      <c r="FJ1" s="7" t="s">
+      <c r="FJ1" s="2" t="s">
         <v>163</v>
       </c>
-      <c r="FK1" s="7" t="s">
+      <c r="FK1" s="2" t="s">
         <v>164</v>
       </c>
-      <c r="FL1" s="7" t="s">
+      <c r="FL1" s="2" t="s">
         <v>165</v>
       </c>
-      <c r="FM1" s="7" t="s">
+      <c r="FM1" s="2" t="s">
         <v>166</v>
       </c>
-      <c r="FN1" s="7" t="s">
+      <c r="FN1" s="2" t="s">
         <v>167</v>
       </c>
-      <c r="FO1" s="7" t="s">
+      <c r="FO1" s="2" t="s">
         <v>168</v>
       </c>
-      <c r="FP1" s="7" t="s">
+      <c r="FP1" s="2" t="s">
         <v>169</v>
       </c>
-      <c r="FQ1" s="7" t="s">
+      <c r="FQ1" s="2" t="s">
         <v>170</v>
       </c>
-      <c r="FR1" s="7" t="s">
+      <c r="FR1" s="2" t="s">
         <v>171</v>
       </c>
-      <c r="FS1" s="7" t="s">
+      <c r="FS1" s="2" t="s">
         <v>172</v>
       </c>
-      <c r="FT1" s="7" t="s">
+      <c r="FT1" s="2" t="s">
         <v>173</v>
       </c>
-      <c r="FU1" s="7" t="s">
+      <c r="FU1" s="2" t="s">
         <v>174</v>
       </c>
-      <c r="FV1" s="7" t="s">
+      <c r="FV1" s="2" t="s">
         <v>175</v>
       </c>
-      <c r="FW1" s="7" t="s">
+      <c r="FW1" s="2" t="s">
         <v>176</v>
       </c>
-      <c r="FX1" s="7" t="s">
+      <c r="FX1" s="2" t="s">
         <v>177</v>
       </c>
-      <c r="FY1" s="7" t="s">
+      <c r="FY1" s="2" t="s">
         <v>178</v>
       </c>
-      <c r="FZ1" s="7" t="s">
+      <c r="FZ1" s="2" t="s">
         <v>179</v>
       </c>
-      <c r="GA1" s="7" t="s">
+      <c r="GA1" s="2" t="s">
         <v>180</v>
       </c>
-      <c r="GB1" s="7" t="s">
+      <c r="GB1" s="2" t="s">
         <v>181</v>
       </c>
-      <c r="GC1" s="7" t="s">
+      <c r="GC1" s="2" t="s">
         <v>182</v>
       </c>
-      <c r="GD1" s="7" t="s">
+      <c r="GD1" s="2" t="s">
         <v>183</v>
       </c>
-      <c r="GE1" s="7" t="s">
+      <c r="GE1" s="2" t="s">
         <v>184</v>
       </c>
-      <c r="GF1" s="7" t="s">
+      <c r="GF1" s="2" t="s">
         <v>185</v>
       </c>
-      <c r="GG1" s="7" t="s">
+      <c r="GG1" s="2" t="s">
         <v>186</v>
       </c>
-      <c r="GH1" s="7" t="s">
+      <c r="GH1" s="2" t="s">
         <v>187</v>
       </c>
-      <c r="GI1" s="7" t="s">
+      <c r="GI1" s="2" t="s">
         <v>188</v>
       </c>
-      <c r="GJ1" s="7" t="s">
+      <c r="GJ1" s="2" t="s">
         <v>319</v>
       </c>
-      <c r="GK1" s="7" t="s">
+      <c r="GK1" s="2" t="s">
         <v>189</v>
       </c>
-      <c r="GL1" s="7" t="s">
+      <c r="GL1" s="2" t="s">
         <v>190</v>
       </c>
-      <c r="GM1" s="7" t="s">
+      <c r="GM1" s="2" t="s">
         <v>191</v>
       </c>
-      <c r="GN1" s="7" t="s">
+      <c r="GN1" s="2" t="s">
         <v>192</v>
       </c>
-      <c r="GO1" s="7" t="s">
+      <c r="GO1" s="2" t="s">
         <v>193</v>
       </c>
-      <c r="GP1" s="7" t="s">
+      <c r="GP1" s="2" t="s">
         <v>194</v>
       </c>
-      <c r="GQ1" s="7" t="s">
+      <c r="GQ1" s="2" t="s">
         <v>195</v>
       </c>
-      <c r="GR1" s="7" t="s">
+      <c r="GR1" s="2" t="s">
         <v>196</v>
       </c>
-      <c r="GS1" s="7" t="s">
+      <c r="GS1" s="2" t="s">
         <v>197</v>
       </c>
-      <c r="GT1" s="7" t="s">
+      <c r="GT1" s="2" t="s">
         <v>320</v>
       </c>
     </row>
-    <row r="2" spans="1:202" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:202" x14ac:dyDescent="0.15">
       <c r="A2" s="4" t="s">
         <v>321</v>
       </c>
@@ -3573,7 +3574,7 @@
         <v>8.4556513451954132</v>
       </c>
     </row>
-    <row r="3" spans="1:202" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:202" x14ac:dyDescent="0.15">
       <c r="A3" s="4" t="s">
         <v>323</v>
       </c>
@@ -4181,7 +4182,7 @@
         <v>7.4874582035065256</v>
       </c>
     </row>
-    <row r="4" spans="1:202" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:202" x14ac:dyDescent="0.15">
       <c r="A4" s="4" t="s">
         <v>415</v>
       </c>
@@ -4789,7 +4790,7 @@
         <v>13.8214235446186</v>
       </c>
     </row>
-    <row r="5" spans="1:202" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:202" x14ac:dyDescent="0.15">
       <c r="A5" s="4" t="s">
         <v>460</v>
       </c>
@@ -5397,7 +5398,7 @@
         <v>8.2751208250975967</v>
       </c>
     </row>
-    <row r="6" spans="1:202" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:202" x14ac:dyDescent="0.15">
       <c r="A6" s="4" t="s">
         <v>461</v>
       </c>
@@ -6005,7 +6006,7 @@
         <v>10.68209754259896</v>
       </c>
     </row>
-    <row r="7" spans="1:202" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:202" x14ac:dyDescent="0.15">
       <c r="A7" s="4" t="s">
         <v>463</v>
       </c>
@@ -6613,7 +6614,7 @@
         <v>7.0013359196139859</v>
       </c>
     </row>
-    <row r="8" spans="1:202" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:202" x14ac:dyDescent="0.15">
       <c r="A8" s="4" t="s">
         <v>464</v>
       </c>
@@ -7221,7 +7222,7 @@
         <v>9.4756186632738792</v>
       </c>
     </row>
-    <row r="9" spans="1:202" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:202" x14ac:dyDescent="0.15">
       <c r="A9" s="4" t="s">
         <v>465</v>
       </c>
@@ -7829,7 +7830,7 @@
         <v>7.5829424181630891</v>
       </c>
     </row>
-    <row r="10" spans="1:202" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:202" x14ac:dyDescent="0.15">
       <c r="A10" s="4" t="s">
         <v>466</v>
       </c>
@@ -8437,7 +8438,7 @@
         <v>9.4131003885286333</v>
       </c>
     </row>
-    <row r="11" spans="1:202" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:202" x14ac:dyDescent="0.15">
       <c r="A11" s="4" t="s">
         <v>467</v>
       </c>
@@ -9045,7 +9046,7 @@
         <v>11.10755504711944</v>
       </c>
     </row>
-    <row r="12" spans="1:202" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:202" x14ac:dyDescent="0.15">
       <c r="A12" s="4" t="s">
         <v>468</v>
       </c>
@@ -9653,7 +9654,7 @@
         <v>8.9220817986704066</v>
       </c>
     </row>
-    <row r="13" spans="1:202" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:202" x14ac:dyDescent="0.15">
       <c r="A13" s="4" t="s">
         <v>469</v>
       </c>
@@ -10261,7 +10262,7 @@
         <v>12.62309287496945</v>
       </c>
     </row>
-    <row r="14" spans="1:202" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:202" x14ac:dyDescent="0.15">
       <c r="A14" s="4" t="s">
         <v>470</v>
       </c>
@@ -10869,7 +10870,7 @@
         <v>7.8902095227249367</v>
       </c>
     </row>
-    <row r="15" spans="1:202" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:202" x14ac:dyDescent="0.15">
       <c r="A15" s="4" t="s">
         <v>471</v>
       </c>
@@ -11477,7 +11478,7 @@
         <v>10.18874312248046</v>
       </c>
     </row>
-    <row r="16" spans="1:202" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:202" x14ac:dyDescent="0.15">
       <c r="A16" s="4" t="s">
         <v>472</v>
       </c>
@@ -12085,7 +12086,7 @@
         <v>9.1369368817260739</v>
       </c>
     </row>
-    <row r="17" spans="1:202" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:202" x14ac:dyDescent="0.15">
       <c r="A17" s="4" t="s">
         <v>473</v>
       </c>
@@ -12693,7 +12694,7 @@
         <v>11.28289151020989</v>
       </c>
     </row>
-    <row r="18" spans="1:202" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:202" x14ac:dyDescent="0.15">
       <c r="A18" s="4" t="s">
         <v>474</v>
       </c>
@@ -13301,7 +13302,7 @@
         <v>8.400012681421229</v>
       </c>
     </row>
-    <row r="19" spans="1:202" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:202" x14ac:dyDescent="0.15">
       <c r="A19" s="4" t="s">
         <v>475</v>
       </c>
@@ -13909,7 +13910,7 @@
         <v>10.96980598287522</v>
       </c>
     </row>
-    <row r="20" spans="1:202" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:202" x14ac:dyDescent="0.15">
       <c r="A20" s="4" t="s">
         <v>476</v>
       </c>
@@ -14517,7 +14518,7 @@
         <v>8.8724154972035709</v>
       </c>
     </row>
-    <row r="21" spans="1:202" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:202" x14ac:dyDescent="0.15">
       <c r="A21" s="4" t="s">
         <v>477</v>
       </c>
@@ -15125,7 +15126,7 @@
         <v>9.7449011157622127</v>
       </c>
     </row>
-    <row r="22" spans="1:202" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:202" x14ac:dyDescent="0.15">
       <c r="A22" s="4" t="s">
         <v>478</v>
       </c>
@@ -15733,7 +15734,7 @@
         <v>10.402290197669821</v>
       </c>
     </row>
-    <row r="23" spans="1:202" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:202" x14ac:dyDescent="0.15">
       <c r="A23" s="4" t="s">
         <v>479</v>
       </c>
@@ -16341,7 +16342,7 @@
         <v>8.0871063502403278</v>
       </c>
     </row>
-    <row r="24" spans="1:202" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:202" x14ac:dyDescent="0.15">
       <c r="A24" s="4" t="s">
         <v>480</v>
       </c>
@@ -16949,7 +16950,7 @@
         <v>10.181728346512299</v>
       </c>
     </row>
-    <row r="25" spans="1:202" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:202" x14ac:dyDescent="0.15">
       <c r="A25" s="4" t="s">
         <v>481</v>
       </c>
@@ -17557,7 +17558,7 @@
         <v>8.7663692693385222</v>
       </c>
     </row>
-    <row r="26" spans="1:202" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:202" x14ac:dyDescent="0.15">
       <c r="A26" s="4" t="s">
         <v>482</v>
       </c>
@@ -18165,7 +18166,7 @@
         <v>9.8770341823094352</v>
       </c>
     </row>
-    <row r="27" spans="1:202" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:202" x14ac:dyDescent="0.15">
       <c r="A27" s="4" t="s">
         <v>483</v>
       </c>
@@ -18773,7 +18774,7 @@
         <v>9.2872447855896176</v>
       </c>
     </row>
-    <row r="28" spans="1:202" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:202" x14ac:dyDescent="0.15">
       <c r="A28" s="4" t="s">
         <v>484</v>
       </c>
@@ -19381,7 +19382,7 @@
         <v>9.0710152202564984</v>
       </c>
     </row>
-    <row r="29" spans="1:202" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:202" x14ac:dyDescent="0.15">
       <c r="A29" s="4" t="s">
         <v>485</v>
       </c>
@@ -19989,7 +19990,7 @@
         <v>8.1867773547136995</v>
       </c>
     </row>
-    <row r="30" spans="1:202" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:202" x14ac:dyDescent="0.15">
       <c r="A30" s="4" t="s">
         <v>486</v>
       </c>
@@ -20597,7 +20598,7 @@
         <v>9.5980117174673563</v>
       </c>
     </row>
-    <row r="31" spans="1:202" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:202" x14ac:dyDescent="0.15">
       <c r="A31" s="4" t="s">
         <v>487</v>
       </c>
@@ -21205,7 +21206,7 @@
         <v>10.423677619315651</v>
       </c>
     </row>
-    <row r="32" spans="1:202" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:202" x14ac:dyDescent="0.15">
       <c r="A32" s="4" t="s">
         <v>488</v>
       </c>
@@ -21813,7 +21814,7 @@
         <v>9.278712416588812</v>
       </c>
     </row>
-    <row r="33" spans="1:202" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:202" x14ac:dyDescent="0.15">
       <c r="A33" s="4" t="s">
         <v>489</v>
       </c>
@@ -22421,7 +22422,7 @@
         <v>10.00790672458395</v>
       </c>
     </row>
-    <row r="34" spans="1:202" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:202" x14ac:dyDescent="0.15">
       <c r="A34" s="4" t="s">
         <v>490</v>
       </c>
@@ -23029,7 +23030,7 @@
         <v>9.430103278041809</v>
       </c>
     </row>
-    <row r="35" spans="1:202" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:202" x14ac:dyDescent="0.15">
       <c r="A35" s="4" t="s">
         <v>491</v>
       </c>
@@ -23637,7 +23638,7 @@
         <v>11.344632914853941</v>
       </c>
     </row>
-    <row r="36" spans="1:202" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:202" x14ac:dyDescent="0.15">
       <c r="A36" s="4" t="s">
         <v>492</v>
       </c>
@@ -24245,7 +24246,7 @@
         <v>9.1513880164129908</v>
       </c>
     </row>
-    <row r="37" spans="1:202" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:202" x14ac:dyDescent="0.15">
       <c r="A37" s="4" t="s">
         <v>493</v>
       </c>
@@ -24853,7 +24854,7 @@
         <v>7.055762668864249</v>
       </c>
     </row>
-    <row r="38" spans="1:202" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:202" x14ac:dyDescent="0.15">
       <c r="A38" s="4" t="s">
         <v>494</v>
       </c>
@@ -25461,7 +25462,7 @@
         <v>9.7257045911991344</v>
       </c>
     </row>
-    <row r="39" spans="1:202" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:202" x14ac:dyDescent="0.15">
       <c r="A39" s="4" t="s">
         <v>495</v>
       </c>
@@ -26069,7 +26070,7 @@
         <v>11.98447416399685</v>
       </c>
     </row>
-    <row r="40" spans="1:202" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:202" x14ac:dyDescent="0.15">
       <c r="A40" s="4" t="s">
         <v>496</v>
       </c>
@@ -26677,7 +26678,7 @@
         <v>6.9298060116817179</v>
       </c>
     </row>
-    <row r="41" spans="1:202" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:202" x14ac:dyDescent="0.15">
       <c r="A41" s="4" t="s">
         <v>497</v>
       </c>
@@ -27285,7 +27286,7 @@
         <v>9.9212860502325615</v>
       </c>
     </row>
-    <row r="42" spans="1:202" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:202" x14ac:dyDescent="0.15">
       <c r="A42" s="4" t="s">
         <v>498</v>
       </c>
@@ -27893,7 +27894,7 @@
         <v>11.28115193958878</v>
       </c>
     </row>
-    <row r="43" spans="1:202" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:202" x14ac:dyDescent="0.15">
       <c r="A43" s="4" t="s">
         <v>499</v>
       </c>
@@ -28501,7 +28502,7 @@
         <v>7.2797408114200124</v>
       </c>
     </row>
-    <row r="44" spans="1:202" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:202" x14ac:dyDescent="0.15">
       <c r="A44" s="4" t="s">
         <v>500</v>
       </c>
@@ -29109,7 +29110,7 @@
         <v>12.355691994578629</v>
       </c>
     </row>
-    <row r="45" spans="1:202" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:202" x14ac:dyDescent="0.15">
       <c r="A45" s="4" t="s">
         <v>501</v>
       </c>
@@ -29717,8 +29718,8 @@
         <v>8.2898132528428832</v>
       </c>
     </row>
-    <row r="46" spans="1:202" x14ac:dyDescent="0.2">
-      <c r="A46" s="2" t="s">
+    <row r="46" spans="1:202" x14ac:dyDescent="0.15">
+      <c r="A46" s="3" t="s">
         <v>502</v>
       </c>
       <c r="B46" s="3" t="s">
@@ -30325,8 +30326,8 @@
         <v>10.18874312248046</v>
       </c>
     </row>
-    <row r="47" spans="1:202" x14ac:dyDescent="0.2">
-      <c r="A47" s="2" t="s">
+    <row r="47" spans="1:202" x14ac:dyDescent="0.15">
+      <c r="A47" s="3" t="s">
         <v>503</v>
       </c>
       <c r="B47" s="3" t="s">
@@ -30933,8 +30934,8 @@
         <v>9.1369368817260739</v>
       </c>
     </row>
-    <row r="48" spans="1:202" x14ac:dyDescent="0.2">
-      <c r="A48" s="2" t="s">
+    <row r="48" spans="1:202" x14ac:dyDescent="0.15">
+      <c r="A48" s="3" t="s">
         <v>504</v>
       </c>
       <c r="B48" s="3" t="s">
@@ -31541,8 +31542,8 @@
         <v>11.28289151020989</v>
       </c>
     </row>
-    <row r="49" spans="1:202" x14ac:dyDescent="0.2">
-      <c r="A49" s="2" t="s">
+    <row r="49" spans="1:202" x14ac:dyDescent="0.15">
+      <c r="A49" s="3" t="s">
         <v>505</v>
       </c>
       <c r="B49" s="3" t="s">
@@ -32149,8 +32150,8 @@
         <v>8.400012681421229</v>
       </c>
     </row>
-    <row r="50" spans="1:202" x14ac:dyDescent="0.2">
-      <c r="A50" s="2" t="s">
+    <row r="50" spans="1:202" x14ac:dyDescent="0.15">
+      <c r="A50" s="3" t="s">
         <v>506</v>
       </c>
       <c r="B50" s="3" t="s">
@@ -32757,8 +32758,8 @@
         <v>10.96980598287522</v>
       </c>
     </row>
-    <row r="51" spans="1:202" x14ac:dyDescent="0.2">
-      <c r="A51" s="2" t="s">
+    <row r="51" spans="1:202" x14ac:dyDescent="0.15">
+      <c r="A51" s="3" t="s">
         <v>507</v>
       </c>
       <c r="B51" s="3" t="s">
@@ -33365,8 +33366,8 @@
         <v>8.8724154972035709</v>
       </c>
     </row>
-    <row r="52" spans="1:202" x14ac:dyDescent="0.2">
-      <c r="A52" s="2" t="s">
+    <row r="52" spans="1:202" x14ac:dyDescent="0.15">
+      <c r="A52" s="3" t="s">
         <v>508</v>
       </c>
       <c r="B52" s="3" t="s">
@@ -33973,8 +33974,8 @@
         <v>9.7449011157622127</v>
       </c>
     </row>
-    <row r="53" spans="1:202" x14ac:dyDescent="0.2">
-      <c r="A53" s="2" t="s">
+    <row r="53" spans="1:202" x14ac:dyDescent="0.15">
+      <c r="A53" s="3" t="s">
         <v>509</v>
       </c>
       <c r="B53" s="3" t="s">
@@ -34581,8 +34582,8 @@
         <v>10.402290197669821</v>
       </c>
     </row>
-    <row r="54" spans="1:202" x14ac:dyDescent="0.2">
-      <c r="A54" s="2" t="s">
+    <row r="54" spans="1:202" x14ac:dyDescent="0.15">
+      <c r="A54" s="3" t="s">
         <v>510</v>
       </c>
       <c r="B54" s="3" t="s">
@@ -35189,8 +35190,8 @@
         <v>8.0871063502403278</v>
       </c>
     </row>
-    <row r="55" spans="1:202" x14ac:dyDescent="0.2">
-      <c r="A55" s="2" t="s">
+    <row r="55" spans="1:202" x14ac:dyDescent="0.15">
+      <c r="A55" s="3" t="s">
         <v>511</v>
       </c>
       <c r="B55" s="3" t="s">
@@ -35797,8 +35798,8 @@
         <v>10.181728346512299</v>
       </c>
     </row>
-    <row r="56" spans="1:202" x14ac:dyDescent="0.2">
-      <c r="A56" s="2" t="s">
+    <row r="56" spans="1:202" x14ac:dyDescent="0.15">
+      <c r="A56" s="3" t="s">
         <v>512</v>
       </c>
       <c r="B56" s="3" t="s">
@@ -36405,8 +36406,8 @@
         <v>8.7663692693385222</v>
       </c>
     </row>
-    <row r="57" spans="1:202" x14ac:dyDescent="0.2">
-      <c r="A57" s="2" t="s">
+    <row r="57" spans="1:202" x14ac:dyDescent="0.15">
+      <c r="A57" s="3" t="s">
         <v>513</v>
       </c>
       <c r="B57" s="3" t="s">
@@ -37013,8 +37014,8 @@
         <v>9.8770341823094352</v>
       </c>
     </row>
-    <row r="58" spans="1:202" x14ac:dyDescent="0.2">
-      <c r="A58" s="2" t="s">
+    <row r="58" spans="1:202" x14ac:dyDescent="0.15">
+      <c r="A58" s="3" t="s">
         <v>514</v>
       </c>
       <c r="B58" s="3" t="s">
@@ -37621,8 +37622,8 @@
         <v>9.2872447855896176</v>
       </c>
     </row>
-    <row r="59" spans="1:202" x14ac:dyDescent="0.2">
-      <c r="A59" s="2" t="s">
+    <row r="59" spans="1:202" x14ac:dyDescent="0.15">
+      <c r="A59" s="3" t="s">
         <v>515</v>
       </c>
       <c r="B59" s="3" t="s">
@@ -38229,8 +38230,8 @@
         <v>9.0710152202564984</v>
       </c>
     </row>
-    <row r="60" spans="1:202" x14ac:dyDescent="0.2">
-      <c r="A60" s="2" t="s">
+    <row r="60" spans="1:202" x14ac:dyDescent="0.15">
+      <c r="A60" s="3" t="s">
         <v>516</v>
       </c>
       <c r="B60" s="3" t="s">
@@ -38837,8 +38838,8 @@
         <v>8.1867773547136995</v>
       </c>
     </row>
-    <row r="61" spans="1:202" x14ac:dyDescent="0.2">
-      <c r="A61" s="2" t="s">
+    <row r="61" spans="1:202" x14ac:dyDescent="0.15">
+      <c r="A61" s="3" t="s">
         <v>517</v>
       </c>
       <c r="B61" s="3" t="s">
@@ -39445,8 +39446,8 @@
         <v>9.5980117174673563</v>
       </c>
     </row>
-    <row r="62" spans="1:202" x14ac:dyDescent="0.2">
-      <c r="A62" s="2" t="s">
+    <row r="62" spans="1:202" x14ac:dyDescent="0.15">
+      <c r="A62" s="3" t="s">
         <v>518</v>
       </c>
       <c r="B62" s="3" t="s">
@@ -40053,8 +40054,8 @@
         <v>10.423677619315651</v>
       </c>
     </row>
-    <row r="63" spans="1:202" x14ac:dyDescent="0.2">
-      <c r="A63" s="2" t="s">
+    <row r="63" spans="1:202" x14ac:dyDescent="0.15">
+      <c r="A63" s="3" t="s">
         <v>519</v>
       </c>
       <c r="B63" s="3" t="s">
@@ -40661,8 +40662,8 @@
         <v>9.278712416588812</v>
       </c>
     </row>
-    <row r="64" spans="1:202" x14ac:dyDescent="0.2">
-      <c r="A64" s="2" t="s">
+    <row r="64" spans="1:202" x14ac:dyDescent="0.15">
+      <c r="A64" s="3" t="s">
         <v>520</v>
       </c>
       <c r="B64" s="3" t="s">
@@ -41269,8 +41270,8 @@
         <v>10.00790672458395</v>
       </c>
     </row>
-    <row r="65" spans="1:202" x14ac:dyDescent="0.2">
-      <c r="A65" s="2" t="s">
+    <row r="65" spans="1:202" x14ac:dyDescent="0.15">
+      <c r="A65" s="3" t="s">
         <v>521</v>
       </c>
       <c r="B65" s="3" t="s">
@@ -41877,8 +41878,8 @@
         <v>9.430103278041809</v>
       </c>
     </row>
-    <row r="66" spans="1:202" x14ac:dyDescent="0.2">
-      <c r="A66" s="2" t="s">
+    <row r="66" spans="1:202" x14ac:dyDescent="0.15">
+      <c r="A66" s="3" t="s">
         <v>522</v>
       </c>
       <c r="B66" s="3" t="s">
@@ -42485,8 +42486,8 @@
         <v>11.344632914853941</v>
       </c>
     </row>
-    <row r="67" spans="1:202" x14ac:dyDescent="0.2">
-      <c r="A67" s="2" t="s">
+    <row r="67" spans="1:202" x14ac:dyDescent="0.15">
+      <c r="A67" s="3" t="s">
         <v>523</v>
       </c>
       <c r="B67" s="3" t="s">
@@ -43093,8 +43094,8 @@
         <v>9.1513880164129908</v>
       </c>
     </row>
-    <row r="68" spans="1:202" x14ac:dyDescent="0.2">
-      <c r="A68" s="2" t="s">
+    <row r="68" spans="1:202" x14ac:dyDescent="0.15">
+      <c r="A68" s="3" t="s">
         <v>524</v>
       </c>
       <c r="B68" s="3" t="s">
@@ -43701,8 +43702,8 @@
         <v>7.055762668864249</v>
       </c>
     </row>
-    <row r="69" spans="1:202" x14ac:dyDescent="0.2">
-      <c r="A69" s="2" t="s">
+    <row r="69" spans="1:202" x14ac:dyDescent="0.15">
+      <c r="A69" s="3" t="s">
         <v>525</v>
       </c>
       <c r="B69" s="3" t="s">
@@ -44309,8 +44310,8 @@
         <v>9.7257045911991344</v>
       </c>
     </row>
-    <row r="70" spans="1:202" x14ac:dyDescent="0.2">
-      <c r="A70" s="2" t="s">
+    <row r="70" spans="1:202" x14ac:dyDescent="0.15">
+      <c r="A70" s="3" t="s">
         <v>526</v>
       </c>
       <c r="B70" s="3" t="s">
@@ -44917,8 +44918,8 @@
         <v>11.98447416399685</v>
       </c>
     </row>
-    <row r="71" spans="1:202" x14ac:dyDescent="0.2">
-      <c r="A71" s="2" t="s">
+    <row r="71" spans="1:202" x14ac:dyDescent="0.15">
+      <c r="A71" s="3" t="s">
         <v>527</v>
       </c>
       <c r="B71" s="3" t="s">
@@ -45525,8 +45526,8 @@
         <v>6.9298060116817179</v>
       </c>
     </row>
-    <row r="72" spans="1:202" x14ac:dyDescent="0.2">
-      <c r="A72" s="2" t="s">
+    <row r="72" spans="1:202" x14ac:dyDescent="0.15">
+      <c r="A72" s="3" t="s">
         <v>528</v>
       </c>
       <c r="B72" s="3" t="s">
@@ -46133,8 +46134,8 @@
         <v>9.9212860502325615</v>
       </c>
     </row>
-    <row r="73" spans="1:202" x14ac:dyDescent="0.2">
-      <c r="A73" s="2" t="s">
+    <row r="73" spans="1:202" x14ac:dyDescent="0.15">
+      <c r="A73" s="3" t="s">
         <v>529</v>
       </c>
       <c r="B73" s="3" t="s">
@@ -46741,8 +46742,8 @@
         <v>11.28115193958878</v>
       </c>
     </row>
-    <row r="74" spans="1:202" x14ac:dyDescent="0.2">
-      <c r="A74" s="2" t="s">
+    <row r="74" spans="1:202" x14ac:dyDescent="0.15">
+      <c r="A74" s="3" t="s">
         <v>530</v>
       </c>
       <c r="B74" s="3" t="s">
@@ -47349,8 +47350,8 @@
         <v>7.2797408114200124</v>
       </c>
     </row>
-    <row r="75" spans="1:202" x14ac:dyDescent="0.2">
-      <c r="A75" s="2" t="s">
+    <row r="75" spans="1:202" x14ac:dyDescent="0.15">
+      <c r="A75" s="3" t="s">
         <v>531</v>
       </c>
       <c r="B75" s="3" t="s">
@@ -47957,8 +47958,8 @@
         <v>12.355691994578629</v>
       </c>
     </row>
-    <row r="76" spans="1:202" x14ac:dyDescent="0.2">
-      <c r="A76" s="2" t="s">
+    <row r="76" spans="1:202" x14ac:dyDescent="0.15">
+      <c r="A76" s="3" t="s">
         <v>532</v>
       </c>
       <c r="B76" s="3" t="s">
@@ -48565,8 +48566,8 @@
         <v>8.2898132528428832</v>
       </c>
     </row>
-    <row r="77" spans="1:202" x14ac:dyDescent="0.2">
-      <c r="A77" s="2" t="s">
+    <row r="77" spans="1:202" x14ac:dyDescent="0.15">
+      <c r="A77" s="3" t="s">
         <v>533</v>
       </c>
       <c r="B77" s="3" t="s">
@@ -49173,8 +49174,8 @@
         <v>7.4874582035065256</v>
       </c>
     </row>
-    <row r="78" spans="1:202" x14ac:dyDescent="0.2">
-      <c r="A78" s="2" t="s">
+    <row r="78" spans="1:202" x14ac:dyDescent="0.15">
+      <c r="A78" s="3" t="s">
         <v>534</v>
       </c>
       <c r="B78" s="3" t="s">
@@ -49781,8 +49782,8 @@
         <v>13.8214235446186</v>
       </c>
     </row>
-    <row r="79" spans="1:202" x14ac:dyDescent="0.2">
-      <c r="A79" s="2" t="s">
+    <row r="79" spans="1:202" x14ac:dyDescent="0.15">
+      <c r="A79" s="3" t="s">
         <v>535</v>
       </c>
       <c r="B79" s="3" t="s">
@@ -50389,8 +50390,8 @@
         <v>8.2751208250975967</v>
       </c>
     </row>
-    <row r="80" spans="1:202" x14ac:dyDescent="0.2">
-      <c r="A80" s="2" t="s">
+    <row r="80" spans="1:202" x14ac:dyDescent="0.15">
+      <c r="A80" s="3" t="s">
         <v>536</v>
       </c>
       <c r="B80" s="3" t="s">
@@ -50997,8 +50998,8 @@
         <v>7.5829424181630891</v>
       </c>
     </row>
-    <row r="81" spans="1:202" x14ac:dyDescent="0.2">
-      <c r="A81" s="2" t="s">
+    <row r="81" spans="1:202" x14ac:dyDescent="0.15">
+      <c r="A81" s="3" t="s">
         <v>537</v>
       </c>
       <c r="B81" s="3" t="s">
@@ -51605,8 +51606,8 @@
         <v>9.4131003885286333</v>
       </c>
     </row>
-    <row r="82" spans="1:202" x14ac:dyDescent="0.2">
-      <c r="A82" s="2" t="s">
+    <row r="82" spans="1:202" x14ac:dyDescent="0.15">
+      <c r="A82" s="3" t="s">
         <v>538</v>
       </c>
       <c r="B82" s="3" t="s">
@@ -52213,8 +52214,8 @@
         <v>11.10755504711944</v>
       </c>
     </row>
-    <row r="83" spans="1:202" x14ac:dyDescent="0.2">
-      <c r="A83" s="2" t="s">
+    <row r="83" spans="1:202" x14ac:dyDescent="0.15">
+      <c r="A83" s="3" t="s">
         <v>539</v>
       </c>
       <c r="B83" s="3" t="s">
@@ -52821,8 +52822,8 @@
         <v>8.9220817986704066</v>
       </c>
     </row>
-    <row r="84" spans="1:202" x14ac:dyDescent="0.2">
-      <c r="A84" s="2" t="s">
+    <row r="84" spans="1:202" x14ac:dyDescent="0.15">
+      <c r="A84" s="3" t="s">
         <v>540</v>
       </c>
       <c r="B84" s="3" t="s">
@@ -53429,8 +53430,8 @@
         <v>12.62309287496945</v>
       </c>
     </row>
-    <row r="85" spans="1:202" x14ac:dyDescent="0.2">
-      <c r="A85" s="2" t="s">
+    <row r="85" spans="1:202" x14ac:dyDescent="0.15">
+      <c r="A85" s="3" t="s">
         <v>541</v>
       </c>
       <c r="B85" s="3" t="s">
@@ -54037,8 +54038,8 @@
         <v>7.8902095227249367</v>
       </c>
     </row>
-    <row r="86" spans="1:202" x14ac:dyDescent="0.2">
-      <c r="A86" s="2" t="s">
+    <row r="86" spans="1:202" x14ac:dyDescent="0.15">
+      <c r="A86" s="3" t="s">
         <v>542</v>
       </c>
       <c r="B86" s="3" t="s">
@@ -54645,8 +54646,8 @@
         <v>8.400012681421229</v>
       </c>
     </row>
-    <row r="87" spans="1:202" x14ac:dyDescent="0.2">
-      <c r="A87" s="2" t="s">
+    <row r="87" spans="1:202" x14ac:dyDescent="0.15">
+      <c r="A87" s="3" t="s">
         <v>543</v>
       </c>
       <c r="B87" s="3" t="s">
@@ -55253,8 +55254,8 @@
         <v>10.96980598287522</v>
       </c>
     </row>
-    <row r="88" spans="1:202" x14ac:dyDescent="0.2">
-      <c r="A88" s="2" t="s">
+    <row r="88" spans="1:202" x14ac:dyDescent="0.15">
+      <c r="A88" s="3" t="s">
         <v>544</v>
       </c>
       <c r="B88" s="3" t="s">
@@ -55861,8 +55862,8 @@
         <v>9.8770341823094352</v>
       </c>
     </row>
-    <row r="89" spans="1:202" x14ac:dyDescent="0.2">
-      <c r="A89" s="2" t="s">
+    <row r="89" spans="1:202" x14ac:dyDescent="0.15">
+      <c r="A89" s="3" t="s">
         <v>545</v>
       </c>
       <c r="B89" s="3" t="s">
@@ -56469,8 +56470,8 @@
         <v>9.2872447855896176</v>
       </c>
     </row>
-    <row r="90" spans="1:202" x14ac:dyDescent="0.2">
-      <c r="A90" s="2" t="s">
+    <row r="90" spans="1:202" x14ac:dyDescent="0.15">
+      <c r="A90" s="3" t="s">
         <v>546</v>
       </c>
       <c r="B90" s="3" t="s">
@@ -57077,8 +57078,8 @@
         <v>9.0710152202564984</v>
       </c>
     </row>
-    <row r="91" spans="1:202" x14ac:dyDescent="0.2">
-      <c r="A91" s="2" t="s">
+    <row r="91" spans="1:202" x14ac:dyDescent="0.15">
+      <c r="A91" s="3" t="s">
         <v>547</v>
       </c>
       <c r="B91" s="3" t="s">
@@ -57685,8 +57686,8 @@
         <v>8.1867773547136995</v>
       </c>
     </row>
-    <row r="92" spans="1:202" x14ac:dyDescent="0.2">
-      <c r="A92" s="2" t="s">
+    <row r="92" spans="1:202" x14ac:dyDescent="0.15">
+      <c r="A92" s="3" t="s">
         <v>548</v>
       </c>
       <c r="B92" s="3" t="s">
@@ -58293,8 +58294,8 @@
         <v>9.5980117174673563</v>
       </c>
     </row>
-    <row r="93" spans="1:202" x14ac:dyDescent="0.2">
-      <c r="A93" s="2" t="s">
+    <row r="93" spans="1:202" x14ac:dyDescent="0.15">
+      <c r="A93" s="3" t="s">
         <v>549</v>
       </c>
       <c r="B93" s="3" t="s">
@@ -58901,8 +58902,8 @@
         <v>10.423677619315651</v>
       </c>
     </row>
-    <row r="94" spans="1:202" x14ac:dyDescent="0.2">
-      <c r="A94" s="2" t="s">
+    <row r="94" spans="1:202" x14ac:dyDescent="0.15">
+      <c r="A94" s="3" t="s">
         <v>550</v>
       </c>
       <c r="B94" s="3" t="s">
@@ -59509,8 +59510,8 @@
         <v>9.278712416588812</v>
       </c>
     </row>
-    <row r="95" spans="1:202" x14ac:dyDescent="0.2">
-      <c r="A95" s="2" t="s">
+    <row r="95" spans="1:202" x14ac:dyDescent="0.15">
+      <c r="A95" s="3" t="s">
         <v>551</v>
       </c>
       <c r="B95" s="3" t="s">
@@ -60117,8 +60118,8 @@
         <v>10.00790672458395</v>
       </c>
     </row>
-    <row r="96" spans="1:202" x14ac:dyDescent="0.2">
-      <c r="A96" s="2" t="s">
+    <row r="96" spans="1:202" x14ac:dyDescent="0.15">
+      <c r="A96" s="3" t="s">
         <v>552</v>
       </c>
       <c r="B96" s="3" t="s">
@@ -60725,8 +60726,8 @@
         <v>9.430103278041809</v>
       </c>
     </row>
-    <row r="97" spans="1:202" x14ac:dyDescent="0.2">
-      <c r="A97" s="2" t="s">
+    <row r="97" spans="1:202" x14ac:dyDescent="0.15">
+      <c r="A97" s="3" t="s">
         <v>553</v>
       </c>
       <c r="B97" s="3" t="s">
@@ -61333,8 +61334,8 @@
         <v>11.344632914853941</v>
       </c>
     </row>
-    <row r="98" spans="1:202" x14ac:dyDescent="0.2">
-      <c r="A98" s="2" t="s">
+    <row r="98" spans="1:202" x14ac:dyDescent="0.15">
+      <c r="A98" s="3" t="s">
         <v>554</v>
       </c>
       <c r="B98" s="3" t="s">
@@ -61941,8 +61942,8 @@
         <v>9.1513880164129908</v>
       </c>
     </row>
-    <row r="99" spans="1:202" x14ac:dyDescent="0.2">
-      <c r="A99" s="2" t="s">
+    <row r="99" spans="1:202" x14ac:dyDescent="0.15">
+      <c r="A99" s="3" t="s">
         <v>555</v>
       </c>
       <c r="B99" s="3" t="s">
@@ -62549,8 +62550,8 @@
         <v>7.055762668864249</v>
       </c>
     </row>
-    <row r="100" spans="1:202" x14ac:dyDescent="0.2">
-      <c r="A100" s="2" t="s">
+    <row r="100" spans="1:202" x14ac:dyDescent="0.15">
+      <c r="A100" s="3" t="s">
         <v>556</v>
       </c>
       <c r="B100" s="3" t="s">
@@ -63157,8 +63158,8 @@
         <v>9.7257045911991344</v>
       </c>
     </row>
-    <row r="101" spans="1:202" x14ac:dyDescent="0.2">
-      <c r="A101" s="2" t="s">
+    <row r="101" spans="1:202" x14ac:dyDescent="0.15">
+      <c r="A101" s="3" t="s">
         <v>557</v>
       </c>
       <c r="B101" s="3" t="s">
@@ -63765,8 +63766,8 @@
         <v>11.98447416399685</v>
       </c>
     </row>
-    <row r="102" spans="1:202" x14ac:dyDescent="0.2">
-      <c r="A102" s="2" t="s">
+    <row r="102" spans="1:202" x14ac:dyDescent="0.15">
+      <c r="A102" s="3" t="s">
         <v>558</v>
       </c>
       <c r="B102" s="3" t="s">
@@ -64373,8 +64374,8 @@
         <v>6.9298060116817179</v>
       </c>
     </row>
-    <row r="103" spans="1:202" x14ac:dyDescent="0.2">
-      <c r="A103" s="2" t="s">
+    <row r="103" spans="1:202" x14ac:dyDescent="0.15">
+      <c r="A103" s="3" t="s">
         <v>559</v>
       </c>
       <c r="B103" s="3" t="s">
@@ -64981,8 +64982,8 @@
         <v>9.9212860502325615</v>
       </c>
     </row>
-    <row r="104" spans="1:202" x14ac:dyDescent="0.2">
-      <c r="A104" s="2" t="s">
+    <row r="104" spans="1:202" x14ac:dyDescent="0.15">
+      <c r="A104" s="3" t="s">
         <v>560</v>
       </c>
       <c r="B104" s="3" t="s">
@@ -65589,8 +65590,8 @@
         <v>11.28115193958878</v>
       </c>
     </row>
-    <row r="105" spans="1:202" x14ac:dyDescent="0.2">
-      <c r="A105" s="2" t="s">
+    <row r="105" spans="1:202" x14ac:dyDescent="0.15">
+      <c r="A105" s="3" t="s">
         <v>561</v>
       </c>
       <c r="B105" s="3" t="s">
@@ -66197,8 +66198,8 @@
         <v>7.2797408114200124</v>
       </c>
     </row>
-    <row r="106" spans="1:202" x14ac:dyDescent="0.2">
-      <c r="A106" s="2" t="s">
+    <row r="106" spans="1:202" x14ac:dyDescent="0.15">
+      <c r="A106" s="3" t="s">
         <v>562</v>
       </c>
       <c r="B106" s="3" t="s">
@@ -66805,8 +66806,8 @@
         <v>12.355691994578629</v>
       </c>
     </row>
-    <row r="107" spans="1:202" x14ac:dyDescent="0.2">
-      <c r="A107" s="2" t="s">
+    <row r="107" spans="1:202" x14ac:dyDescent="0.15">
+      <c r="A107" s="3" t="s">
         <v>563</v>
       </c>
       <c r="B107" s="3" t="s">
